--- a/Test.xlsx
+++ b/Test.xlsx
@@ -361,55 +361,19 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -437,6 +401,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +721,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,90 +735,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -830,10 +830,10 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -845,10 +845,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -860,158 +860,194 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
+        <f>SUM(B4:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:M9" si="0">SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1020,15 +1056,15 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1043,9 +1079,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1060,9 +1096,9 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1077,9 +1113,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1094,97 +1130,106 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
@@ -1193,15 +1238,6 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
